--- a/data/trans_bre/iP22_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/iP22_R-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,24</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>-10,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>18,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-23,37%</t>
+          <t>24,41%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>-36,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>20,91%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>39,32%</t>
+          <t>184,19%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 0,03</t>
+          <t>-16,16; 22,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 8,34</t>
+          <t>-31,48; 12,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 8,86</t>
+          <t>-18,16; 27,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 11,15</t>
+          <t>-4,97; 39,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-42,41; -0,17</t>
+          <t>-72,35; 286,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 36,42</t>
+          <t>-79,25; 110,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 66,92</t>
+          <t>-64,61; 342,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 116,89</t>
+          <t>-43,53; —</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,64</t>
+          <t>-6,24</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,0</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-8,62</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-21,41%</t>
+          <t>-23,37%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-8,22%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-20,13%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-46,28%</t>
+          <t>39,32%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 1,92</t>
+          <t>-12,79; 0,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 5,45</t>
+          <t>-5,26; 8,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 2,57</t>
+          <t>-2,84; 8,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,54; -2,83</t>
+          <t>-1,96; 11,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-46,9; 15,46</t>
+          <t>-42,41; -0,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,47; 30,22</t>
+          <t>-17,73; 36,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-46,65; 24,1</t>
+          <t>-15,94; 66,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-68,63; -16,65</t>
+          <t>-13,0; 116,89</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,27</t>
+          <t>-15,81</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,96</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,41%</t>
+          <t>-0,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-36,11%</t>
+          <t>-42,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>184,19%</t>
+          <t>9,13%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 22,06</t>
+          <t>-8,25; 8,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,48; 12,91</t>
+          <t>-23,95; -8,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 27,44</t>
+          <t>-4,21; 9,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 39,8</t>
+          <t>-5,82; 8,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-72,35; 286,52</t>
+          <t>-28,03; 38,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-79,25; 110,02</t>
+          <t>-59,73; -24,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-64,61; 342,82</t>
+          <t>-18,86; 62,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,53; —</t>
+          <t>-31,67; 77,08</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-3,64</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-15,81</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>-8,62</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,95%</t>
+          <t>-21,41%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-42,78%</t>
+          <t>-8,22%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>-20,13%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>-46,28%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 8,39</t>
+          <t>-9,91; 1,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-23,95; -8,16</t>
+          <t>-8,39; 5,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 9,76</t>
+          <t>-8,33; 2,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 8,42</t>
+          <t>-15,54; -2,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-28,03; 38,37</t>
+          <t>-46,9; 15,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-59,73; -24,9</t>
+          <t>-32,47; 30,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-18,86; 62,57</t>
+          <t>-46,65; 24,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-31,67; 77,08</t>
+          <t>-68,63; -16,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/iP22_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/iP22_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 22,06</t>
+          <t>-13,46; 23,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-31,48; 12,91</t>
+          <t>-31,83; 13,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 27,44</t>
+          <t>-18,46; 28,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-72,35; 286,52</t>
+          <t>-65,03; 337,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-79,25; 110,02</t>
+          <t>-82,57; 108,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-64,61; 342,82</t>
+          <t>-67,38; 310,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 11,03</t>
+          <t>-5,66; 10,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 8,94</t>
+          <t>-8,78; 10,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 10,59</t>
+          <t>-6,59; 9,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 7,71</t>
+          <t>-9,73; 7,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,4; 87,29</t>
+          <t>-27,48; 76,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,77; 44,34</t>
+          <t>-31,23; 52,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,36; 81,0</t>
+          <t>-31,76; 72,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,0; 69,21</t>
+          <t>-48,64; 65,65</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 0,03</t>
+          <t>-13,0; 0,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 8,34</t>
+          <t>-5,91; 8,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 8,86</t>
+          <t>-2,46; 8,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 11,15</t>
+          <t>-1,08; 11,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-42,41; -0,17</t>
+          <t>-42,8; 0,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 36,42</t>
+          <t>-19,11; 36,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 66,92</t>
+          <t>-14,5; 64,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 116,89</t>
+          <t>-7,63; 110,92</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 8,39</t>
+          <t>-7,65; 7,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,95; -8,16</t>
+          <t>-23,71; -7,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 9,76</t>
+          <t>-4,05; 9,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 8,42</t>
+          <t>-6,27; 7,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,03; 38,37</t>
+          <t>-25,23; 34,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,73; -24,9</t>
+          <t>-58,56; -23,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,86; 62,57</t>
+          <t>-18,46; 57,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,67; 77,08</t>
+          <t>-32,07; 69,84</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 1,92</t>
+          <t>-9,55; 2,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 5,45</t>
+          <t>-8,39; 5,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 2,57</t>
+          <t>-8,86; 2,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,54; -2,83</t>
+          <t>-15,41; -2,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-46,9; 15,46</t>
+          <t>-47,04; 16,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-32,47; 30,22</t>
+          <t>-32,78; 30,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-46,65; 24,1</t>
+          <t>-48,57; 20,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-68,63; -16,65</t>
+          <t>-67,44; -12,04</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 1,12</t>
+          <t>-5,76; 1,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,63; -0,57</t>
+          <t>-7,6; -0,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 3,98</t>
+          <t>-2,22; 4,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 3,12</t>
+          <t>-3,36; 3,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-23,91; 5,77</t>
+          <t>-24,72; 5,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,0; -2,41</t>
+          <t>-25,22; 0,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 25,72</t>
+          <t>-12,09; 27,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-22,38; 23,65</t>
+          <t>-20,88; 26,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/iP22_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/iP22_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 23,93</t>
+          <t>-14,78; 26,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-31,83; 13,77</t>
+          <t>-35,08; 13,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 28,02</t>
+          <t>-20,61; 27,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 39,8</t>
+          <t>-2,12; 40,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-65,03; 337,82</t>
+          <t>-60,76; 481,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-82,57; 108,95</t>
+          <t>-83,23; 92,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-67,38; 310,58</t>
+          <t>-72,29; 265,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-43,53; —</t>
+          <t>-40,69; —</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 10,71</t>
+          <t>-3,82; 11,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 10,21</t>
+          <t>-8,83; 9,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 9,56</t>
+          <t>-7,05; 10,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 7,44</t>
+          <t>-9,25; 7,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,48; 76,93</t>
+          <t>-19,8; 83,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,23; 52,5</t>
+          <t>-30,56; 48,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,76; 72,31</t>
+          <t>-32,99; 80,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,64; 65,65</t>
+          <t>-46,85; 70,66</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 0,17</t>
+          <t>-13,09; 0,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 8,73</t>
+          <t>-5,44; 8,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 8,61</t>
+          <t>-2,35; 9,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 11,34</t>
+          <t>-0,9; 11,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-42,8; 0,81</t>
+          <t>-43,2; 2,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,11; 36,41</t>
+          <t>-17,46; 34,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 64,42</t>
+          <t>-12,8; 76,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 110,92</t>
+          <t>-5,39; 114,98</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 7,89</t>
+          <t>-8,12; 8,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,71; -7,82</t>
+          <t>-22,99; -7,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 9,42</t>
+          <t>-4,5; 9,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 7,73</t>
+          <t>-6,38; 8,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,23; 34,82</t>
+          <t>-27,83; 37,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-58,56; -23,95</t>
+          <t>-57,49; -23,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 57,86</t>
+          <t>-19,7; 61,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,07; 69,84</t>
+          <t>-35,44; 72,43</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 2,18</t>
+          <t>-9,31; 1,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 5,08</t>
+          <t>-8,71; 5,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 2,53</t>
+          <t>-8,68; 2,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,41; -2,13</t>
+          <t>-14,77; -1,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-47,04; 16,38</t>
+          <t>-46,41; 13,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-32,78; 30,17</t>
+          <t>-33,46; 29,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-48,57; 20,77</t>
+          <t>-46,82; 23,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-67,44; -12,04</t>
+          <t>-66,85; -10,33</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 1,14</t>
+          <t>-6,12; 0,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,6; -0,03</t>
+          <t>-7,62; 0,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 4,08</t>
+          <t>-2,09; 4,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 3,49</t>
+          <t>-3,36; 3,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,72; 5,78</t>
+          <t>-25,85; 4,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,22; 0,32</t>
+          <t>-26,02; 0,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 27,52</t>
+          <t>-11,43; 26,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 26,72</t>
+          <t>-20,85; 26,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/iP22_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/iP22_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-10,27</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,96</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,41%</t>
+          <t>19,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-36,11%</t>
+          <t>-5,6%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>184,19%</t>
+          <t>16,67%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 26,13</t>
+          <t>-3,67; 11,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-35,08; 13,16</t>
+          <t>-10,48; 7,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,61; 27,22</t>
+          <t>-6,33; 9,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 40,74</t>
+          <t>-5,72; 10,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-60,76; 481,33</t>
+          <t>-18,89; 85,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-83,23; 92,86</t>
+          <t>-34,59; 34,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-72,29; 265,37</t>
+          <t>-30,03; 66,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-40,69; —</t>
+          <t>-28,51; 103,4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>-6,24</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>-23,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-5,44%</t>
+          <t>51,16%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 11,08</t>
+          <t>-12,79; 0,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 9,6</t>
+          <t>-5,26; 8,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 10,93</t>
+          <t>-2,84; 8,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 7,83</t>
+          <t>-0,71; 15,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 83,6</t>
+          <t>-42,41; -0,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,56; 48,4</t>
+          <t>-17,73; 36,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-32,99; 80,58</t>
+          <t>-15,94; 66,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,85; 70,66</t>
+          <t>-5,75; 148,41</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,24</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>-15,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-23,37%</t>
+          <t>-0,95%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>-42,78%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>39,32%</t>
+          <t>-5,02%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 0,39</t>
+          <t>-8,25; 8,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 8,24</t>
+          <t>-23,95; -8,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 9,4</t>
+          <t>-4,21; 9,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 11,47</t>
+          <t>-8,77; 6,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-43,2; 2,23</t>
+          <t>-28,03; 38,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 34,4</t>
+          <t>-59,73; -24,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 76,66</t>
+          <t>-18,86; 62,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 114,98</t>
+          <t>-46,69; 55,42</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-3,64</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-15,81</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>-8,32</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,95%</t>
+          <t>-21,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-42,78%</t>
+          <t>-8,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>-20,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>-43,54%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 8,36</t>
+          <t>-9,91; 1,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,99; -7,79</t>
+          <t>-8,39; 5,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 9,6</t>
+          <t>-8,33; 2,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 8,1</t>
+          <t>-15,74; -1,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,83; 37,63</t>
+          <t>-46,9; 15,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,49; -23,77</t>
+          <t>-32,47; 30,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,7; 61,72</t>
+          <t>-46,65; 24,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-35,44; 72,43</t>
+          <t>-66,14; -9,06</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,64</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,0</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-8,62</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-21,41%</t>
+          <t>-11,02%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,22%</t>
+          <t>-14,34%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-20,13%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-46,28%</t>
+          <t>1,3%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 1,67</t>
+          <t>-5,68; 1,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 5,22</t>
+          <t>-7,63; -0,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 2,55</t>
+          <t>-2,54; 3,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,77; -1,88</t>
+          <t>-3,72; 3,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-46,41; 13,92</t>
+          <t>-23,91; 5,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-33,46; 29,24</t>
+          <t>-26,0; -2,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-46,82; 23,19</t>
+          <t>-13,56; 25,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-66,85; -10,33</t>
+          <t>-21,61; 28,36</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-2,4</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-3,95</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-11,02%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-14,34%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>5,25%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,34%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-6,12; 0,94</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-7,62; 0,07</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-2,09; 4,06</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-3,36; 3,47</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-25,85; 4,69</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-26,02; 0,35</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-11,43; 26,42</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-20,85; 26,39</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
